--- a/MacV1Buildup/tables/neuron_group_ephys_templates.xlsx
+++ b/MacV1Buildup/tables/neuron_group_ephys_templates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simo\Laskenta\PythonUtilities\MacV1Buildup\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD8072E-4ACA-4043-8B94-7E1D8A180210}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7B36B3-A006-4E12-9216-F73FC5041EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="17496" windowHeight="30336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>Key</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>fract_areas</t>
+  </si>
+  <si>
+    <t>VIP</t>
   </si>
 </sst>
 </file>
@@ -632,18 +635,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="21" customWidth="1"/>
+    <col min="1" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -651,13 +656,16 @@
         <v>85</v>
       </c>
       <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -665,13 +673,16 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -679,13 +690,16 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>60</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -698,8 +712,11 @@
       <c r="D4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -707,13 +724,16 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -721,13 +741,16 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>61</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -740,8 +763,11 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -749,13 +775,16 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
         <v>62</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -768,8 +797,11 @@
       <c r="D9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -777,13 +809,16 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
         <v>63</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -791,13 +826,16 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
         <v>64</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -805,13 +843,16 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
         <v>65</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -824,8 +865,11 @@
       <c r="D13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -838,8 +882,11 @@
       <c r="D14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -852,8 +899,11 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -866,8 +916,11 @@
       <c r="D16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -880,8 +933,11 @@
       <c r="D17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -894,8 +950,11 @@
       <c r="D18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -908,8 +967,11 @@
       <c r="D19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -922,8 +984,11 @@
       <c r="D20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -936,8 +1001,11 @@
       <c r="D21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -950,8 +1018,11 @@
       <c r="D22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -964,8 +1035,11 @@
       <c r="D23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -978,8 +1052,11 @@
       <c r="D24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -992,8 +1069,11 @@
       <c r="D25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -1006,8 +1086,11 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -1020,8 +1103,11 @@
       <c r="D27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -1034,8 +1120,11 @@
       <c r="D28" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1048,8 +1137,11 @@
       <c r="D29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1062,8 +1154,11 @@
       <c r="D30" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -1074,6 +1169,9 @@
         <v>28</v>
       </c>
       <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
         <v>28</v>
       </c>
     </row>
